--- a/final_output/nonlife_2019.xlsx
+++ b/final_output/nonlife_2019.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tungwu/Documents/GitHub/ORA_final_project/final_output/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{849FDF0B-46AC-D34C-AF6A-5BDBBEBC3B76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="27000" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -13,12 +19,12 @@
     <sheet name="CRS_sol" sheetId="4" r:id="rId4"/>
     <sheet name="VRS_sol" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="47">
   <si>
     <t>X1</t>
   </si>
@@ -156,17 +162,21 @@
   </si>
   <si>
     <t>u0_sol1</t>
+  </si>
+  <si>
+    <t>台產</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -174,8 +184,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -221,15 +238,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -271,7 +296,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -303,9 +328,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -337,6 +380,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -512,12 +573,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="234" zoomScaleNormal="234" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="11.59765625" customWidth="1"/>
+    <col min="2" max="5" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="9.3984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
@@ -553,7 +622,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="B2">
         <v>845748</v>
@@ -1049,31 +1118,31 @@
         <v>1737419</v>
       </c>
       <c r="C16">
-        <v>2371124.571428571</v>
+        <v>2371124.5714285709</v>
       </c>
       <c r="D16">
-        <v>1185562.285714286</v>
+        <v>1185562.2857142859</v>
       </c>
       <c r="E16">
-        <v>1185562.285714286</v>
+        <v>1185562.2857142859</v>
       </c>
       <c r="F16">
-        <v>12298852.42857143</v>
+        <v>12298852.428571429</v>
       </c>
       <c r="G16">
-        <v>3553848.357142857</v>
+        <v>3553848.3571428568</v>
       </c>
       <c r="H16">
-        <v>8745004.071428571</v>
+        <v>8745004.0714285709</v>
       </c>
       <c r="I16">
-        <v>1235975.285714286</v>
+        <v>1235975.2857142859</v>
       </c>
       <c r="J16">
-        <v>603621.3571428572</v>
+        <v>603621.35714285716</v>
       </c>
       <c r="K16">
-        <v>626914.7142857143</v>
+        <v>626914.71428571432</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1084,45 +1153,46 @@
         <v>1199097.295664256</v>
       </c>
       <c r="C17">
-        <v>1725853.57829702</v>
+        <v>1725853.5782970199</v>
       </c>
       <c r="D17">
-        <v>862926.7891485101</v>
+        <v>862926.78914851008</v>
       </c>
       <c r="E17">
-        <v>862926.7891485101</v>
+        <v>862926.78914851008</v>
       </c>
       <c r="F17">
         <v>9392045.831334604</v>
       </c>
       <c r="G17">
-        <v>2306258.342345066</v>
+        <v>2306258.3423450659</v>
       </c>
       <c r="H17">
-        <v>7164332.068166033</v>
+        <v>7164332.0681660334</v>
       </c>
       <c r="I17">
-        <v>783281.3460123106</v>
+        <v>783281.34601231059</v>
       </c>
       <c r="J17">
         <v>604084.1180162034</v>
       </c>
       <c r="K17">
-        <v>723132.4272701765</v>
+        <v>723132.42727017647</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
@@ -1161,31 +1231,31 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0.8703509411719522</v>
+        <v>0.87035094117195222</v>
       </c>
       <c r="C2">
-        <v>0.9576073862036237</v>
+        <v>0.95760738620362373</v>
       </c>
       <c r="D2">
-        <v>0.7234105389957735</v>
+        <v>0.72341053899577346</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0.9576076515101665</v>
+        <v>0.95760765151016647</v>
       </c>
       <c r="G2">
-        <v>0.9088805209517609</v>
+        <v>0.90888052095176086</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>0.04239234848983364</v>
+        <v>4.2392348489833642E-2</v>
       </c>
       <c r="J2">
-        <v>0.08725671033821411</v>
+        <v>8.7256710338214111E-2</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -1196,31 +1266,31 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.5036652387860502</v>
+        <v>0.50366523878605018</v>
       </c>
       <c r="C3">
-        <v>0.6300681183696383</v>
+        <v>0.63006811836963827</v>
       </c>
       <c r="D3">
-        <v>0.831392629367731</v>
+        <v>0.83139262936773095</v>
       </c>
       <c r="E3">
-        <v>0.7993901644053695</v>
+        <v>0.79939016440536947</v>
       </c>
       <c r="F3">
-        <v>0.6300673965797678</v>
+        <v>0.63006739657976785</v>
       </c>
       <c r="G3">
-        <v>0.9999911828079153</v>
+        <v>0.99999118280791532</v>
       </c>
       <c r="H3">
-        <v>0.7993901644053695</v>
+        <v>0.79939016440536947</v>
       </c>
       <c r="I3">
-        <v>0.3699326034202322</v>
+        <v>0.36993260342023221</v>
       </c>
       <c r="J3">
-        <v>5.555425261913679E-06</v>
+        <v>5.5554252619136786E-6</v>
       </c>
       <c r="K3">
         <v>0.1263966023684556</v>
@@ -1231,10 +1301,10 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0.9686308600711512</v>
+        <v>0.96863086007115118</v>
       </c>
       <c r="C4">
-        <v>0.9686421176943315</v>
+        <v>0.96864211769433151</v>
       </c>
       <c r="D4">
         <v>1.608605976524305</v>
@@ -1243,19 +1313,19 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0.968643366654011</v>
+        <v>0.96864336665401096</v>
       </c>
       <c r="G4">
-        <v>0.9999870885577806</v>
+        <v>0.99998708855778062</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>0.03135663334598893</v>
+        <v>3.1356633345988927E-2</v>
       </c>
       <c r="J4">
-        <v>1.250658285979399E-05</v>
+        <v>1.250658285979399E-5</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -1266,34 +1336,34 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0.3646722210362349</v>
+        <v>0.36467222103623492</v>
       </c>
       <c r="C5">
-        <v>0.7933246334674715</v>
+        <v>0.79332463346747151</v>
       </c>
       <c r="D5">
-        <v>0.8454788920058284</v>
+        <v>0.84547889200582838</v>
       </c>
       <c r="E5">
-        <v>0.4596777138731444</v>
+        <v>0.45967771387314438</v>
       </c>
       <c r="F5">
-        <v>0.7933241118394481</v>
+        <v>0.79332411183944807</v>
       </c>
       <c r="G5">
-        <v>0.9999967284300987</v>
+        <v>0.99999672843009868</v>
       </c>
       <c r="H5">
-        <v>0.4596777138731444</v>
+        <v>0.45967771387314438</v>
       </c>
       <c r="I5">
-        <v>0.2066758881605519</v>
+        <v>0.20667588816055191</v>
       </c>
       <c r="J5">
-        <v>2.595415286337192E-06</v>
+        <v>2.5954152863371919E-6</v>
       </c>
       <c r="K5">
-        <v>0.4286492953879268</v>
+        <v>0.42864929538792679</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1301,25 +1371,25 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0.5411654228362874</v>
+        <v>0.54116542283628744</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.8211930185118667</v>
+        <v>0.82119301851186666</v>
       </c>
       <c r="E6">
-        <v>0.6101399487540842</v>
+        <v>0.61013994875408417</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.8869529424214166</v>
+        <v>0.88695294242141665</v>
       </c>
       <c r="H6">
-        <v>0.6101399487540842</v>
+        <v>0.61013994875408417</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1328,7 +1398,7 @@
         <v>0.1130470575785834</v>
       </c>
       <c r="K6">
-        <v>0.3457875195851293</v>
+        <v>0.34578751958512932</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1336,10 +1406,10 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0.3622567034397969</v>
+        <v>0.36225670343979688</v>
       </c>
       <c r="C7">
-        <v>0.8195113773606559</v>
+        <v>0.81951137736065593</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1348,22 +1418,22 @@
         <v>0.4420385844954075</v>
       </c>
       <c r="F7">
-        <v>0.8195137622506811</v>
+        <v>0.81951376225068107</v>
       </c>
       <c r="G7">
-        <v>0.9999999999999999</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="H7">
         <v>0.4420385844954075</v>
       </c>
       <c r="I7">
-        <v>0.1804862377493192</v>
+        <v>0.18048623774931921</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.457257058810884</v>
+        <v>0.45725705881088402</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1371,34 +1441,34 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.5275414831759986</v>
+        <v>0.52754148317599858</v>
       </c>
       <c r="C8">
-        <v>0.73739992564434</v>
+        <v>0.73739992564433998</v>
       </c>
       <c r="D8">
-        <v>0.9076957451668602</v>
+        <v>0.90769574516686025</v>
       </c>
       <c r="E8">
-        <v>0.7154084066468467</v>
+        <v>0.71540840664684668</v>
       </c>
       <c r="F8">
-        <v>0.7374016414758517</v>
+        <v>0.73740164147585174</v>
       </c>
       <c r="G8">
-        <v>0.9999964927790899</v>
+        <v>0.99999649277908986</v>
       </c>
       <c r="H8">
-        <v>0.7154084066468467</v>
+        <v>0.71540840664684668</v>
       </c>
       <c r="I8">
-        <v>0.2625983585241481</v>
+        <v>0.26259835852414809</v>
       </c>
       <c r="J8">
-        <v>2.586230456212519E-06</v>
+        <v>2.5862304562125191E-6</v>
       </c>
       <c r="K8">
-        <v>0.209857572069397</v>
+        <v>0.20985757206939701</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1406,34 +1476,34 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.5954212540559204</v>
+        <v>0.59542125405592039</v>
       </c>
       <c r="C9">
-        <v>0.7753903268129932</v>
+        <v>0.77539032681299325</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9">
-        <v>0.7678987388238628</v>
+        <v>0.76789873882386284</v>
       </c>
       <c r="F9">
-        <v>0.7753903268129932</v>
+        <v>0.77539032681299325</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9">
-        <v>0.7678987388238628</v>
+        <v>0.76789873882386284</v>
       </c>
       <c r="I9">
-        <v>0.2246096731870068</v>
+        <v>0.22460967318700681</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.1799690727570729</v>
+        <v>0.17996907275707291</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1441,34 +1511,34 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0.4610346620206425</v>
+        <v>0.46103466202064253</v>
       </c>
       <c r="C10">
-        <v>0.7263895442716617</v>
+        <v>0.72638954427166169</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10">
-        <v>0.6346934171291163</v>
+        <v>0.63469341712911631</v>
       </c>
       <c r="F10">
-        <v>0.7263895442716617</v>
+        <v>0.72638954427166169</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10">
-        <v>0.6346934171291163</v>
+        <v>0.63469341712911631</v>
       </c>
       <c r="I10">
-        <v>0.2736104557283383</v>
+        <v>0.27361045572833831</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.2653548822510193</v>
+        <v>0.26535488225101928</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1476,34 +1546,34 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.7077671330109161</v>
+        <v>0.70776713301091609</v>
       </c>
       <c r="C11">
         <v>0.9438857936185312</v>
       </c>
       <c r="D11">
-        <v>0.5659186688001699</v>
+        <v>0.56591866880016994</v>
       </c>
       <c r="E11">
-        <v>0.8376947423175213</v>
+        <v>0.83769474231752128</v>
       </c>
       <c r="F11">
-        <v>0.9436082390203371</v>
+        <v>0.94360823902033708</v>
       </c>
       <c r="G11">
-        <v>0.895391314476126</v>
+        <v>0.89539131447612597</v>
       </c>
       <c r="H11">
-        <v>0.8376947423175213</v>
+        <v>0.83769474231752128</v>
       </c>
       <c r="I11">
-        <v>0.05639176097966292</v>
+        <v>5.6391760979662919E-2</v>
       </c>
       <c r="J11">
-        <v>0.09870961753341492</v>
+        <v>9.8709617533414923E-2</v>
       </c>
       <c r="K11">
-        <v>0.1371314884760061</v>
+        <v>0.13713148847600609</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1511,28 +1581,28 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0.5086053245515481</v>
+        <v>0.50860532455154805</v>
       </c>
       <c r="C12">
-        <v>0.9349777437146505</v>
+        <v>0.93497774371465048</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12">
-        <v>0.5284227208894846</v>
+        <v>0.52842272088948461</v>
       </c>
       <c r="F12">
-        <v>0.962497077520478</v>
+        <v>0.96249707752047797</v>
       </c>
       <c r="G12">
-        <v>0.9999999999999999</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="H12">
-        <v>0.5284227208894846</v>
+        <v>0.52842272088948461</v>
       </c>
       <c r="I12">
-        <v>0.03750292247952211</v>
+        <v>3.7502922479522111E-2</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1546,31 +1616,31 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0.7013447286482605</v>
+        <v>0.70134472864826047</v>
       </c>
       <c r="C13">
-        <v>0.9621139254907807</v>
+        <v>0.96211392549078067</v>
       </c>
       <c r="D13">
-        <v>0.7631129387293846</v>
+        <v>0.76311293872938457</v>
       </c>
       <c r="E13">
-        <v>0.7776442553506204</v>
+        <v>0.77764425535062043</v>
       </c>
       <c r="F13">
-        <v>0.9697011778555233</v>
+        <v>0.96970117785552334</v>
       </c>
       <c r="G13">
         <v>0.9300635962306576</v>
       </c>
       <c r="H13">
-        <v>0.7776442553506204</v>
+        <v>0.77764425535062043</v>
       </c>
       <c r="I13">
-        <v>0.03029882214447666</v>
+        <v>3.0298822144476659E-2</v>
       </c>
       <c r="J13">
-        <v>0.06781741311011083</v>
+        <v>6.781741311011083E-2</v>
       </c>
       <c r="K13">
         <v>0.2005390360971521</v>
@@ -1581,7 +1651,7 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>0.6406266930899321</v>
+        <v>0.64062669308993214</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1590,22 +1660,22 @@
         <v>0.7694817255995211</v>
       </c>
       <c r="E14">
-        <v>0.6792468928951947</v>
+        <v>0.67924689289519469</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.9431426183774658</v>
+        <v>0.94314261837746582</v>
       </c>
       <c r="H14">
-        <v>0.6792468928951947</v>
+        <v>0.67924689289519469</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.05685738162253418</v>
+        <v>5.6857381622534182E-2</v>
       </c>
       <c r="K14">
         <v>0.3025159252875339</v>
@@ -1619,31 +1689,31 @@
         <v>0.5226205182399345</v>
       </c>
       <c r="C15">
-        <v>0.7428803125403948</v>
+        <v>0.74288031254039477</v>
       </c>
       <c r="D15">
-        <v>0.8543694481858367</v>
+        <v>0.85436944818583671</v>
       </c>
       <c r="E15">
-        <v>0.7035062701945515</v>
+        <v>0.70350627019455148</v>
       </c>
       <c r="F15">
-        <v>0.742881067402658</v>
+        <v>0.74288106740265802</v>
       </c>
       <c r="G15">
-        <v>0.9999981426583539</v>
+        <v>0.99999814265835385</v>
       </c>
       <c r="H15">
-        <v>0.7035062701945515</v>
+        <v>0.70350627019455148</v>
       </c>
       <c r="I15">
         <v>0.2571189325973422</v>
       </c>
       <c r="J15">
-        <v>1.379783944690879E-06</v>
+        <v>1.3797839446908789E-6</v>
       </c>
       <c r="K15">
-        <v>0.2202591693787785</v>
+        <v>0.22025916937877851</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1651,34 +1721,34 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>0.5911216560096161</v>
+        <v>0.59112165600961608</v>
       </c>
       <c r="C16">
-        <v>0.8565850860849339</v>
+        <v>0.85658508608493389</v>
       </c>
       <c r="D16">
-        <v>0.90647568442052</v>
+        <v>0.90647568442051996</v>
       </c>
       <c r="E16">
-        <v>0.7111258468410862</v>
+        <v>0.71112584684108615</v>
       </c>
       <c r="F16">
-        <v>0.8590732402281127</v>
+        <v>0.85907324022811271</v>
       </c>
       <c r="G16">
-        <v>0.9688857591207619</v>
+        <v>0.96888575912076191</v>
       </c>
       <c r="H16">
-        <v>0.7111258468410862</v>
+        <v>0.71112584684108615</v>
       </c>
       <c r="I16">
-        <v>0.1409267597718873</v>
+        <v>0.14092675977188729</v>
       </c>
       <c r="J16">
-        <v>0.03026520025861903</v>
+        <v>3.0265200258619031E-2</v>
       </c>
       <c r="K16">
-        <v>0.2376863839598775</v>
+        <v>0.23768638395987751</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1686,48 +1756,49 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>0.162270535342797</v>
+        <v>0.16227053534279701</v>
       </c>
       <c r="C17">
         <v>0.114357551628679</v>
       </c>
       <c r="D17">
-        <v>0.2215301398334711</v>
+        <v>0.22153013983347111</v>
       </c>
       <c r="E17">
-        <v>0.1601045433826087</v>
+        <v>0.16010454338260871</v>
       </c>
       <c r="F17">
-        <v>0.1162642139043688</v>
+        <v>0.11626421390436879</v>
       </c>
       <c r="G17">
-        <v>0.04210771320270105</v>
+        <v>4.2107713202701048E-2</v>
       </c>
       <c r="H17">
-        <v>0.1601045433826087</v>
+        <v>0.16010454338260871</v>
       </c>
       <c r="I17">
         <v>0.1162642139043687</v>
       </c>
       <c r="J17">
-        <v>0.04094318830983494</v>
+        <v>4.0943188309834941E-2</v>
       </c>
       <c r="K17">
-        <v>0.1388891279429134</v>
+        <v>0.13888912794291339</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
@@ -1766,31 +1837,31 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0.8703509411719523</v>
+        <v>0.87035094117195233</v>
       </c>
       <c r="C2">
-        <v>0.9576073862036238</v>
+        <v>0.95760738620362384</v>
       </c>
       <c r="D2">
-        <v>0.7234105389957736</v>
+        <v>0.72341053899577357</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0.9576076515101666</v>
+        <v>0.95760765151016658</v>
       </c>
       <c r="G2">
-        <v>0.9088805209517609</v>
+        <v>0.90888052095176086</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>0.04239234848983353</v>
+        <v>4.2392348489833531E-2</v>
       </c>
       <c r="J2">
-        <v>0.08725671033821411</v>
+        <v>8.7256710338214111E-2</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -1801,31 +1872,31 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.5080327147520118</v>
+        <v>0.50803271475201184</v>
       </c>
       <c r="C3">
         <v>0.634829125679504</v>
       </c>
       <c r="D3">
-        <v>0.9783171587408794</v>
+        <v>0.97831715874087943</v>
       </c>
       <c r="E3">
-        <v>0.7873188668069385</v>
+        <v>0.78731886680693852</v>
       </c>
       <c r="F3">
         <v>0.6459291732816983</v>
       </c>
       <c r="G3">
-        <v>0.9989784530115127</v>
+        <v>0.99897845301151267</v>
       </c>
       <c r="H3">
-        <v>0.7873188668069385</v>
+        <v>0.78731886680693852</v>
       </c>
       <c r="I3">
         <v>0.3540708267183017</v>
       </c>
       <c r="J3">
-        <v>0.000659847001742056</v>
+        <v>6.5984700174205602E-4</v>
       </c>
       <c r="K3">
         <v>0.1372366115279445</v>
@@ -1871,31 +1942,31 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0.3672016853692776</v>
+        <v>0.36720168536927761</v>
       </c>
       <c r="C5">
-        <v>0.7986089679481467</v>
+        <v>0.79860896794814673</v>
       </c>
       <c r="D5">
-        <v>-0.1222847244716525</v>
+        <v>-0.12228472447165251</v>
       </c>
       <c r="E5">
-        <v>0.4769773795938949</v>
+        <v>0.47697737959389491</v>
       </c>
       <c r="F5">
-        <v>0.8048932515822025</v>
+        <v>0.80489325158220248</v>
       </c>
       <c r="G5">
-        <v>0.95646392932547</v>
+        <v>0.95646392932546997</v>
       </c>
       <c r="H5">
-        <v>0.4769773795938949</v>
+        <v>0.47697737959389491</v>
       </c>
       <c r="I5">
-        <v>0.1951067484177975</v>
+        <v>0.19510674841779749</v>
       </c>
       <c r="J5">
-        <v>0.0350418894863351</v>
+        <v>3.5041889486335097E-2</v>
       </c>
       <c r="K5">
         <v>0.4026496767265898</v>
@@ -1906,25 +1977,25 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0.5411654228362874</v>
+        <v>0.54116542283628744</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.8211930185118667</v>
+        <v>0.82119301851186666</v>
       </c>
       <c r="E6">
-        <v>0.6101399487540842</v>
+        <v>0.61013994875408417</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.8869529424214166</v>
+        <v>0.88695294242141665</v>
       </c>
       <c r="H6">
-        <v>0.6101399487540842</v>
+        <v>0.61013994875408417</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1933,7 +2004,7 @@
         <v>0.1130470575785834</v>
       </c>
       <c r="K6">
-        <v>0.3457875195851293</v>
+        <v>0.34578751958512932</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1941,34 +2012,34 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0.3636189889156664</v>
+        <v>0.36361898891566641</v>
       </c>
       <c r="C7">
         <v>0.817905929833041</v>
       </c>
       <c r="D7">
-        <v>1.000794282198359</v>
+        <v>1.0007942821983591</v>
       </c>
       <c r="E7">
-        <v>0.450140373041462</v>
+        <v>0.45014037304146198</v>
       </c>
       <c r="F7">
-        <v>0.8179083359366791</v>
+        <v>0.81790833593667911</v>
       </c>
       <c r="G7">
-        <v>0.9876292732865316</v>
+        <v>0.98762927328653161</v>
       </c>
       <c r="H7">
-        <v>0.450140373041462</v>
+        <v>0.45014037304146198</v>
       </c>
       <c r="I7">
         <v>0.182091664063321</v>
       </c>
       <c r="J7">
-        <v>8.02537979474391E-06</v>
+        <v>8.0253797947439097E-6</v>
       </c>
       <c r="K7">
-        <v>0.4441712265204723</v>
+        <v>0.44417122652047231</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1976,34 +2047,34 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.5295255925716049</v>
+        <v>0.52952559257160492</v>
       </c>
       <c r="C8">
-        <v>0.7212221830631119</v>
+        <v>0.72122218306311192</v>
       </c>
       <c r="D8">
-        <v>1.000235849685653</v>
+        <v>1.0002358496856529</v>
       </c>
       <c r="E8">
-        <v>0.7592805727058238</v>
+        <v>0.75928057270582383</v>
       </c>
       <c r="F8">
-        <v>0.7212240046001555</v>
+        <v>0.72122400460015545</v>
       </c>
       <c r="G8">
-        <v>0.9669733254139652</v>
+        <v>0.96697332541396519</v>
       </c>
       <c r="H8">
-        <v>0.7592805727058238</v>
+        <v>0.75928057270582383</v>
       </c>
       <c r="I8">
-        <v>0.2787759953998444</v>
+        <v>0.27877599539984438</v>
       </c>
       <c r="J8">
-        <v>5.615854831640393E-06</v>
+        <v>5.6158548316403934E-6</v>
       </c>
       <c r="K8">
-        <v>0.1678787815249843</v>
+        <v>0.16787878152498431</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2011,34 +2082,34 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.5954212540559204</v>
+        <v>0.59542125405592039</v>
       </c>
       <c r="C9">
-        <v>0.7753903268129932</v>
+        <v>0.77539032681299325</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9">
-        <v>0.7678987388238628</v>
+        <v>0.76789873882386284</v>
       </c>
       <c r="F9">
-        <v>0.7753903268129932</v>
+        <v>0.77539032681299325</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9">
-        <v>0.7678987388238628</v>
+        <v>0.76789873882386284</v>
       </c>
       <c r="I9">
-        <v>0.2246096731870068</v>
+        <v>0.22460967318700681</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.1799690727570729</v>
+        <v>0.17996907275707291</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -2046,34 +2117,34 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0.4610335439350959</v>
+        <v>0.46103354393509588</v>
       </c>
       <c r="C10">
-        <v>0.7263919629801872</v>
+        <v>0.72639196298018716</v>
       </c>
       <c r="D10">
-        <v>0.5659593946024035</v>
+        <v>0.56595939460240352</v>
       </c>
       <c r="E10">
-        <v>0.634692493219191</v>
+        <v>0.63469249321919097</v>
       </c>
       <c r="F10">
-        <v>0.726394800433703</v>
+        <v>0.72639480043370297</v>
       </c>
       <c r="G10">
-        <v>0.9999917945610768</v>
+        <v>0.99999179456107679</v>
       </c>
       <c r="H10">
-        <v>0.634692493219191</v>
+        <v>0.63469249321919097</v>
       </c>
       <c r="I10">
-        <v>0.2736051995662969</v>
+        <v>0.27360519956629692</v>
       </c>
       <c r="J10">
-        <v>5.960388169185158E-06</v>
+        <v>5.9603881691851583E-6</v>
       </c>
       <c r="K10">
-        <v>0.265355296110438</v>
+        <v>0.26535529611043801</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -2081,31 +2152,31 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.899126793243976</v>
+        <v>0.89912679324397604</v>
       </c>
       <c r="C11">
-        <v>0.9729105343269113</v>
+        <v>0.97291053432691132</v>
       </c>
       <c r="D11">
-        <v>0.252211075806379</v>
+        <v>0.25221107580637903</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>0.9756826556381409</v>
+        <v>0.97568265563814094</v>
       </c>
       <c r="G11">
-        <v>0.9215361040274982</v>
+        <v>0.92153610402749819</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>0.02431734436185906</v>
+        <v>2.4317344361859061E-2</v>
       </c>
       <c r="J11">
-        <v>0.07655586239416531</v>
+        <v>7.6555862394165314E-2</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -2116,28 +2187,28 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0.5086053245515481</v>
+        <v>0.50860532455154805</v>
       </c>
       <c r="C12">
-        <v>0.9349777437146505</v>
+        <v>0.93497774371465048</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12">
-        <v>0.5284227208894846</v>
+        <v>0.52842272088948461</v>
       </c>
       <c r="F12">
-        <v>0.962497077520478</v>
+        <v>0.96249707752047797</v>
       </c>
       <c r="G12">
-        <v>0.9999999999999999</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="H12">
-        <v>0.5284227208894846</v>
+        <v>0.52842272088948461</v>
       </c>
       <c r="I12">
-        <v>0.03750292247952211</v>
+        <v>3.7502922479522111E-2</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -2151,7 +2222,7 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0.9999999999999998</v>
+        <v>0.99999999999999978</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -2160,7 +2231,7 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>0.9999999999999998</v>
+        <v>0.99999999999999978</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -2169,7 +2240,7 @@
         <v>1</v>
       </c>
       <c r="H13">
-        <v>0.9999999999999998</v>
+        <v>0.99999999999999978</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -2186,34 +2257,34 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>0.7225608339141505</v>
+        <v>0.72256083391415049</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14">
-        <v>0.7694712978725325</v>
+        <v>0.76947129787253254</v>
       </c>
       <c r="E14">
-        <v>0.748472006190682</v>
+        <v>0.74847200619068199</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.9653812406312888</v>
+        <v>0.96538124063128883</v>
       </c>
       <c r="H14">
-        <v>0.748472006190682</v>
+        <v>0.74847200619068199</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.03461875936871102</v>
+        <v>3.4618759368711019E-2</v>
       </c>
       <c r="K14">
-        <v>0.2428204067171386</v>
+        <v>0.24282040671713859</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2221,10 +2292,10 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>0.5245850049809125</v>
+        <v>0.52458500498091254</v>
       </c>
       <c r="C15">
-        <v>0.6990833131810729</v>
+        <v>0.69908331318107286</v>
       </c>
       <c r="D15">
         <v>1.000196018297574</v>
@@ -2233,7 +2304,7 @@
         <v>0.8100803169229801</v>
       </c>
       <c r="F15">
-        <v>0.6990841966243188</v>
+        <v>0.69908419662431875</v>
       </c>
       <c r="G15">
         <v>0.9263141702901283</v>
@@ -2242,10 +2313,10 @@
         <v>0.8100803169229801</v>
       </c>
       <c r="I15">
-        <v>0.3009158033756815</v>
+        <v>0.30091580337568152</v>
       </c>
       <c r="J15">
-        <v>1.00950772328979E-05</v>
+        <v>1.00950772328979E-5</v>
       </c>
       <c r="K15">
         <v>0.122986592578084</v>
@@ -2259,31 +2330,31 @@
         <v>0.6350877214498859</v>
       </c>
       <c r="C16">
-        <v>0.8599233909816604</v>
+        <v>0.85992339098166037</v>
       </c>
       <c r="D16">
         <v>0.7849645650171263</v>
       </c>
       <c r="E16">
-        <v>0.7552445297820288</v>
+        <v>0.75524452978202883</v>
       </c>
       <c r="F16">
-        <v>0.8633293909957527</v>
+        <v>0.86332939099575268</v>
       </c>
       <c r="G16">
-        <v>0.9656501252800462</v>
+        <v>0.96565012528004623</v>
       </c>
       <c r="H16">
-        <v>0.7552445297820288</v>
+        <v>0.75524452978202883</v>
       </c>
       <c r="I16">
-        <v>0.1366706090042475</v>
+        <v>0.13667060900424749</v>
       </c>
       <c r="J16">
-        <v>0.02480070163341281</v>
+        <v>2.480070163341281E-2</v>
       </c>
       <c r="K16">
-        <v>0.1973390669297702</v>
+        <v>0.19733906692977021</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -2291,48 +2362,49 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>0.2066691028207915</v>
+        <v>0.20666910282079151</v>
       </c>
       <c r="C17">
         <v>0.1245535037955889</v>
       </c>
       <c r="D17">
-        <v>0.3185202461902805</v>
+        <v>0.31852024619028052</v>
       </c>
       <c r="E17">
-        <v>0.1828362459427225</v>
+        <v>0.18283624594272249</v>
       </c>
       <c r="F17">
         <v>0.1244874272386052</v>
       </c>
       <c r="G17">
-        <v>0.03695806122598889</v>
+        <v>3.6958061225988888E-2</v>
       </c>
       <c r="H17">
-        <v>0.1828362459427225</v>
+        <v>0.18283624594272249</v>
       </c>
       <c r="I17">
-        <v>0.1244874272386051</v>
+        <v>0.12448742723860511</v>
       </c>
       <c r="J17">
-        <v>0.03657863832206926</v>
+        <v>3.6578638322069257E-2</v>
       </c>
       <c r="K17">
         <v>0.1557156800201204</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
@@ -2362,25 +2434,25 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>1.182370497311256E-06</v>
+        <v>1.1823704973112559E-6</v>
       </c>
       <c r="C2">
-        <v>9.999999999999999E-12</v>
+        <v>9.9999999999999994E-12</v>
       </c>
       <c r="D2">
-        <v>1.559396526606769E-07</v>
+        <v>1.559396526606769E-7</v>
       </c>
       <c r="E2">
-        <v>1.507202353142003E-07</v>
+        <v>1.507202353142003E-7</v>
       </c>
       <c r="F2">
-        <v>3.447376665189258E-07</v>
+        <v>3.4473766651892579E-7</v>
       </c>
       <c r="G2">
-        <v>1.666548576399874E-06</v>
+        <v>1.666548576399874E-6</v>
       </c>
       <c r="H2">
-        <v>9.999999999999999E-12</v>
+        <v>9.9999999999999994E-12</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2388,25 +2460,25 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>9.188594263447852E-07</v>
+        <v>9.1885942634478518E-7</v>
       </c>
       <c r="C3">
-        <v>-2.836051775762451E-12</v>
+        <v>-2.8360517757624509E-12</v>
       </c>
       <c r="D3">
-        <v>9.999999999999999E-12</v>
+        <v>9.9999999999999994E-12</v>
       </c>
       <c r="E3">
-        <v>1.554725051278233E-07</v>
+        <v>1.5547250512782329E-7</v>
       </c>
       <c r="F3">
         <v>2.052552035356898E-11</v>
       </c>
       <c r="G3">
-        <v>9.999999999999999E-12</v>
+        <v>9.9999999999999994E-12</v>
       </c>
       <c r="H3">
-        <v>1.484061484476388E-06</v>
+        <v>1.484061484476388E-6</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2414,25 +2486,25 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>1.857719218261497E-07</v>
+        <v>1.857719218261497E-7</v>
       </c>
       <c r="C4">
-        <v>9.999999999999999E-12</v>
+        <v>9.9999999999999994E-12</v>
       </c>
       <c r="D4">
-        <v>-5.474095695692068E-12</v>
+        <v>-5.4740956956920682E-12</v>
       </c>
       <c r="E4">
-        <v>3.14366859251135E-08</v>
+        <v>3.1436685925113498E-8</v>
       </c>
       <c r="F4">
-        <v>-9.159882811957401E-12</v>
+        <v>-9.1598828119574006E-12</v>
       </c>
       <c r="G4">
-        <v>9.999999999999999E-12</v>
+        <v>9.9999999999999994E-12</v>
       </c>
       <c r="H4">
-        <v>3.000583582479653E-07</v>
+        <v>3.0005835824796532E-7</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2440,25 +2512,25 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>7.304734816094281E-07</v>
+        <v>7.3047348160942811E-7</v>
       </c>
       <c r="C5">
-        <v>-2.836051775762451E-12</v>
+        <v>-2.8360517757624509E-12</v>
       </c>
       <c r="D5">
-        <v>9.999999999999999E-12</v>
+        <v>9.9999999999999994E-12</v>
       </c>
       <c r="E5">
-        <v>1.23596571816653E-07</v>
+        <v>1.23596571816653E-7</v>
       </c>
       <c r="F5">
         <v>2.052552035356898E-11</v>
       </c>
       <c r="G5">
-        <v>9.999999999999999E-12</v>
+        <v>9.9999999999999994E-12</v>
       </c>
       <c r="H5">
-        <v>1.179793353854081E-06</v>
+        <v>1.1797933538540809E-6</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2466,25 +2538,25 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>2.250709739187766E-07</v>
+        <v>2.2507097391877661E-7</v>
       </c>
       <c r="C6">
-        <v>5.513247287506835E-07</v>
+        <v>5.5132472875068352E-7</v>
       </c>
       <c r="D6">
-        <v>9.09985124356728E-08</v>
+        <v>9.0998512435672796E-8</v>
       </c>
       <c r="E6">
-        <v>7.567431774826693E-08</v>
+        <v>7.5674317748266925E-8</v>
       </c>
       <c r="F6">
-        <v>5.085596982030537E-07</v>
+        <v>5.0855969820305371E-7</v>
       </c>
       <c r="G6">
-        <v>1.26199168024581E-06</v>
+        <v>1.2619916802458101E-6</v>
       </c>
       <c r="H6">
-        <v>9.999999999999999E-12</v>
+        <v>9.9999999999999994E-12</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2492,25 +2564,25 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>5.861874025935961E-07</v>
+        <v>5.8618740259359607E-7</v>
       </c>
       <c r="C7">
-        <v>9.999999999999999E-12</v>
+        <v>9.9999999999999994E-12</v>
       </c>
       <c r="D7">
-        <v>-5.474095695692068E-12</v>
+        <v>-5.4740956956920682E-12</v>
       </c>
       <c r="E7">
-        <v>9.918917764966091E-08</v>
+        <v>9.9189177649660912E-8</v>
       </c>
       <c r="F7">
-        <v>-9.159882811957401E-12</v>
+        <v>-9.1598828119574006E-12</v>
       </c>
       <c r="G7">
-        <v>9.999999999999999E-12</v>
+        <v>9.9999999999999994E-12</v>
       </c>
       <c r="H7">
-        <v>9.467821357383413E-07</v>
+        <v>9.4678213573834134E-7</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2518,25 +2590,25 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>1.380297557365916E-06</v>
+        <v>1.380297557365916E-6</v>
       </c>
       <c r="C8">
-        <v>9.999999999999999E-12</v>
+        <v>9.9999999999999994E-12</v>
       </c>
       <c r="D8">
-        <v>9.999999999999999E-12</v>
+        <v>9.9999999999999994E-12</v>
       </c>
       <c r="E8">
-        <v>2.335520672618071E-07</v>
+        <v>2.3355206726180709E-7</v>
       </c>
       <c r="F8">
         <v>2.768226900388527E-11</v>
       </c>
       <c r="G8">
-        <v>9.999999999999999E-12</v>
+        <v>9.9999999999999994E-12</v>
       </c>
       <c r="H8">
-        <v>2.229369150055777E-06</v>
+        <v>2.229369150055777E-6</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2544,7 +2616,7 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>9.213142363318427E-07</v>
+        <v>9.2131423633184268E-7</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -2553,16 +2625,16 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.558914132219428E-07</v>
+        <v>1.5589141322194279E-7</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.1689400525123E-07</v>
+        <v>1.1689400525123E-7</v>
       </c>
       <c r="H9">
-        <v>1.409190608191362E-06</v>
+        <v>1.4091906081913619E-6</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2570,7 +2642,7 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>6.503092220350777E-07</v>
+        <v>6.5030922203507769E-7</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -2579,16 +2651,16 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1.100358809801305E-07</v>
+        <v>1.100358809801305E-7</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>8.250957883615231E-08</v>
+        <v>8.2509578836152313E-8</v>
       </c>
       <c r="H10">
-        <v>9.94676530518721E-07</v>
+        <v>9.9467653051872104E-7</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2596,25 +2668,25 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>3.964812622957406E-07</v>
+        <v>3.9648126229574059E-7</v>
       </c>
       <c r="C11">
-        <v>-2.991065791558624E-09</v>
+        <v>-2.9910657915586239E-9</v>
       </c>
       <c r="D11">
-        <v>5.254183544787019E-08</v>
+        <v>5.2541835447870191E-8</v>
       </c>
       <c r="E11">
-        <v>5.006372439829635E-08</v>
+        <v>5.0063724398296348E-8</v>
       </c>
       <c r="F11">
-        <v>1.144853186606298E-07</v>
+        <v>1.1448531866062981E-7</v>
       </c>
       <c r="G11">
-        <v>5.535304766049543E-07</v>
+        <v>5.5353047660495431E-7</v>
       </c>
       <c r="H11">
-        <v>9.999999999999999E-12</v>
+        <v>9.9999999999999994E-12</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2622,25 +2694,25 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>9.999433327606848E-08</v>
+        <v>9.9994333276068478E-8</v>
       </c>
       <c r="C12">
-        <v>5.263714000997844E-07</v>
+        <v>5.2637140009978436E-7</v>
       </c>
       <c r="D12">
-        <v>5.475288303297326E-08</v>
+        <v>5.4752883032973259E-8</v>
       </c>
       <c r="E12">
-        <v>6.172415511995942E-08</v>
+        <v>6.1724155119959424E-8</v>
       </c>
       <c r="F12">
-        <v>4.14519601175835E-07</v>
+        <v>4.14519601175835E-7</v>
       </c>
       <c r="G12">
-        <v>3.720526400369235E-07</v>
+        <v>3.7205264003692348E-7</v>
       </c>
       <c r="H12">
-        <v>8.016140287815376E-07</v>
+        <v>8.0161402878153765E-7</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2648,25 +2720,25 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>1.811122459097083E-07</v>
+        <v>1.8111224590970831E-7</v>
       </c>
       <c r="C13">
-        <v>1.000102564941536E-07</v>
+        <v>1.000102564941536E-7</v>
       </c>
       <c r="D13">
-        <v>1.550367383755753E-08</v>
+        <v>1.550367383755753E-8</v>
       </c>
       <c r="E13">
-        <v>3.901476124134773E-08</v>
+        <v>3.9014761241347727E-8</v>
       </c>
       <c r="F13">
-        <v>9.003438468680113E-08</v>
+        <v>9.0034384686801128E-8</v>
       </c>
       <c r="G13">
-        <v>4.323996518214139E-07</v>
+        <v>4.3239965182141389E-7</v>
       </c>
       <c r="H13">
-        <v>9.999999999999999E-12</v>
+        <v>9.9999999999999994E-12</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2674,25 +2746,25 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>6.012985424563927E-07</v>
+        <v>6.0129854245639265E-7</v>
       </c>
       <c r="C14">
-        <v>9.999999999999999E-12</v>
+        <v>9.9999999999999994E-12</v>
       </c>
       <c r="D14">
-        <v>7.930322941475213E-08</v>
+        <v>7.9303229414752133E-8</v>
       </c>
       <c r="E14">
-        <v>7.665007158185621E-08</v>
+        <v>7.6650071581856215E-8</v>
       </c>
       <c r="F14">
-        <v>1.753193435809493E-07</v>
+        <v>1.7531934358094931E-7</v>
       </c>
       <c r="G14">
-        <v>8.475336299422545E-07</v>
+        <v>8.4753362994225454E-7</v>
       </c>
       <c r="H14">
-        <v>9.999999999999999E-12</v>
+        <v>9.9999999999999994E-12</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2700,39 +2772,40 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>2.984780895857398E-06</v>
+        <v>2.9847808958573981E-6</v>
       </c>
       <c r="C15">
-        <v>9.999999999999999E-12</v>
+        <v>9.9999999999999994E-12</v>
       </c>
       <c r="D15">
-        <v>9.999999999999999E-12</v>
+        <v>9.9999999999999994E-12</v>
       </c>
       <c r="E15">
-        <v>5.050394330973296E-07</v>
+        <v>5.0503943309732963E-7</v>
       </c>
       <c r="F15">
         <v>2.768226900388527E-11</v>
       </c>
       <c r="G15">
-        <v>9.999999999999999E-12</v>
+        <v>9.9999999999999994E-12</v>
       </c>
       <c r="H15">
-        <v>4.820821217794967E-06</v>
+        <v>4.8208212177949674E-6</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
@@ -2771,25 +2844,25 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>1.182370497311256E-06</v>
+        <v>1.1823704973112559E-6</v>
       </c>
       <c r="C2">
-        <v>9.999999999999999E-12</v>
+        <v>9.9999999999999994E-12</v>
       </c>
       <c r="D2">
-        <v>1.55939652660677E-07</v>
+        <v>1.55939652660677E-7</v>
       </c>
       <c r="E2">
-        <v>1.507202353142003E-07</v>
+        <v>1.507202353142003E-7</v>
       </c>
       <c r="F2">
-        <v>3.44737666518926E-07</v>
+        <v>3.4473766651892601E-7</v>
       </c>
       <c r="G2">
-        <v>3.83944347478896E-07</v>
+        <v>3.8394434747889599E-7</v>
       </c>
       <c r="H2">
-        <v>1.565082105901872E-06</v>
+        <v>1.565082105901872E-6</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -2806,31 +2879,31 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>8.629951777209127E-07</v>
+        <v>8.6299517772091272E-7</v>
       </c>
       <c r="C3">
-        <v>4.418286191687205E-08</v>
+        <v>4.4182861916872049E-8</v>
       </c>
       <c r="D3">
-        <v>9.999999999999999E-12</v>
+        <v>9.9999999999999994E-12</v>
       </c>
       <c r="E3">
-        <v>1.518852266466344E-07</v>
+        <v>1.5188522664663439E-7</v>
       </c>
       <c r="F3">
-        <v>5.381220617617465E-08</v>
+        <v>5.3812206176174653E-8</v>
       </c>
       <c r="G3">
-        <v>9.999999999999999E-12</v>
+        <v>9.9999999999999994E-12</v>
       </c>
       <c r="H3">
-        <v>1.496930355238806E-06</v>
+        <v>1.496930355238806E-6</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04204612732821886</v>
+        <v>4.2046127328218857E-2</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -2841,31 +2914,31 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>1.857719218261497E-07</v>
+        <v>1.857719218261497E-7</v>
       </c>
       <c r="C4">
-        <v>9.999999999999999E-12</v>
+        <v>9.9999999999999994E-12</v>
       </c>
       <c r="D4">
-        <v>2.450025070874661E-08</v>
+        <v>2.4500250708746611E-8</v>
       </c>
       <c r="E4">
-        <v>2.368223417707672E-08</v>
+        <v>2.3682234177076719E-8</v>
       </c>
       <c r="F4">
-        <v>1.13607505763354E-07</v>
+        <v>1.13607505763354E-7</v>
       </c>
       <c r="G4">
-        <v>9.999999999999999E-12</v>
+        <v>9.9999999999999994E-12</v>
       </c>
       <c r="H4">
-        <v>3.441292000615354E-07</v>
+        <v>3.4412920006153542E-7</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1397108827571039</v>
+        <v>0.13971088275710389</v>
       </c>
       <c r="K4">
         <v>0.1108945783334405</v>
@@ -2876,31 +2949,31 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>6.848820705308554E-07</v>
+        <v>6.8488207053085542E-7</v>
       </c>
       <c r="C5">
-        <v>3.506368913696936E-08</v>
+        <v>3.5063689136969362E-8</v>
       </c>
       <c r="D5">
-        <v>9.999999999999999E-12</v>
+        <v>9.9999999999999994E-12</v>
       </c>
       <c r="E5">
-        <v>1.205370246470976E-07</v>
+        <v>1.2053702464709759E-7</v>
       </c>
       <c r="F5">
-        <v>4.271052276789527E-08</v>
+        <v>4.2710522767895272E-8</v>
       </c>
       <c r="G5">
-        <v>9.999999999999999E-12</v>
+        <v>9.9999999999999994E-12</v>
       </c>
       <c r="H5">
-        <v>1.187976753670458E-06</v>
+        <v>1.1879767536704581E-6</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.03336852535610839</v>
+        <v>3.3368525356108389E-2</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -2911,25 +2984,25 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>2.250709739187766E-07</v>
+        <v>2.2507097391877661E-7</v>
       </c>
       <c r="C6">
-        <v>5.513247287506835E-07</v>
+        <v>5.5132472875068352E-7</v>
       </c>
       <c r="D6">
-        <v>9.09985124356728E-08</v>
+        <v>9.0998512435672796E-8</v>
       </c>
       <c r="E6">
-        <v>7.567431774826693E-08</v>
+        <v>7.5674317748266925E-8</v>
       </c>
       <c r="F6">
-        <v>5.085596982030537E-07</v>
+        <v>5.0855969820305371E-7</v>
       </c>
       <c r="G6">
-        <v>1.26199168024581E-06</v>
+        <v>1.2619916802458101E-6</v>
       </c>
       <c r="H6">
-        <v>9.999999999999999E-12</v>
+        <v>9.9999999999999994E-12</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -2946,31 +3019,31 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>5.861874025935961E-07</v>
+        <v>5.8618740259359607E-7</v>
       </c>
       <c r="C7">
-        <v>9.999999999999999E-12</v>
+        <v>9.9999999999999994E-12</v>
       </c>
       <c r="D7">
         <v>-1.713018180400014E-12</v>
       </c>
       <c r="E7">
-        <v>1.002166458212372E-07</v>
+        <v>1.0021664582123719E-7</v>
       </c>
       <c r="F7">
-        <v>8.809040743970193E-12</v>
+        <v>8.8090407439701928E-12</v>
       </c>
       <c r="G7">
-        <v>9.999999999999999E-12</v>
+        <v>9.9999999999999994E-12</v>
       </c>
       <c r="H7">
-        <v>9.503425773179613E-07</v>
+        <v>9.5034257731796135E-7</v>
       </c>
       <c r="I7">
-        <v>0.01011009512074562</v>
+        <v>1.011009512074562E-2</v>
       </c>
       <c r="J7">
-        <v>0.01012095036415638</v>
+        <v>1.012095036415638E-2</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -2981,31 +3054,31 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>1.380297557365916E-06</v>
+        <v>1.380297557365916E-6</v>
       </c>
       <c r="C8">
-        <v>9.999999999999999E-12</v>
+        <v>9.9999999999999994E-12</v>
       </c>
       <c r="D8">
         <v>-1.713018180401728E-12</v>
       </c>
       <c r="E8">
-        <v>2.359787463113635E-07</v>
+        <v>2.3597874631136349E-7</v>
       </c>
       <c r="F8">
-        <v>8.809040743966324E-12</v>
+        <v>8.8090407439663235E-12</v>
       </c>
       <c r="G8">
-        <v>9.999999999999999E-12</v>
+        <v>9.9999999999999994E-12</v>
       </c>
       <c r="H8">
-        <v>2.23775393907673E-06</v>
+        <v>2.23775393907673E-6</v>
       </c>
       <c r="I8">
-        <v>0.02381401464873468</v>
+        <v>2.3814014648734678E-2</v>
       </c>
       <c r="J8">
-        <v>0.02382486989214544</v>
+        <v>2.3824869892145439E-2</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -3016,7 +3089,7 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>9.213142363318427E-07</v>
+        <v>9.2131423633184268E-7</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -3025,16 +3098,16 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.558914132219428E-07</v>
+        <v>1.5589141322194279E-7</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.1689400525123E-07</v>
+        <v>1.1689400525123E-7</v>
       </c>
       <c r="H9">
-        <v>1.409190608191362E-06</v>
+        <v>1.4091906081913619E-6</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -3051,25 +3124,25 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>6.502957339650003E-07</v>
+        <v>6.5029573396500031E-7</v>
       </c>
       <c r="C10">
-        <v>9.999999999999999E-12</v>
+        <v>9.9999999999999994E-12</v>
       </c>
       <c r="D10">
-        <v>1.040194870439271E-12</v>
+        <v>1.0401948704392711E-12</v>
       </c>
       <c r="E10">
-        <v>1.100345969825161E-07</v>
+        <v>1.100345969825161E-7</v>
       </c>
       <c r="F10">
-        <v>7.87504034408508E-12</v>
+        <v>7.8750403440850796E-12</v>
       </c>
       <c r="G10">
-        <v>8.251480500193212E-08</v>
+        <v>8.2514805001932124E-8</v>
       </c>
       <c r="H10">
-        <v>9.946695526848279E-07</v>
+        <v>9.946695526848279E-7</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -3086,31 +3159,31 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>3.122468606812915E-07</v>
+        <v>3.1224686068129152E-7</v>
       </c>
       <c r="C11">
-        <v>6.188168875526674E-08</v>
+        <v>6.1881688755266739E-8</v>
       </c>
       <c r="D11">
-        <v>9.999999999999999E-12</v>
+        <v>9.9999999999999994E-12</v>
       </c>
       <c r="E11">
-        <v>6.104495769867236E-08</v>
+        <v>6.1044957698672365E-8</v>
       </c>
       <c r="F11">
-        <v>7.535876275539027E-08</v>
+        <v>7.5358762755390272E-8</v>
       </c>
       <c r="G11">
-        <v>8.567687974528601E-07</v>
+        <v>8.5676879745286012E-7</v>
       </c>
       <c r="H11">
-        <v>9.999999999999999E-12</v>
+        <v>9.9999999999999994E-12</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.05888793725810314</v>
+        <v>5.8887937258103137E-2</v>
       </c>
       <c r="K11">
         <v>0.1963696507143772</v>
@@ -3121,25 +3194,25 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>9.999433327606848E-08</v>
+        <v>9.9994333276068478E-8</v>
       </c>
       <c r="C12">
-        <v>5.263714000997844E-07</v>
+        <v>5.2637140009978436E-7</v>
       </c>
       <c r="D12">
-        <v>5.475288303297326E-08</v>
+        <v>5.4752883032973259E-8</v>
       </c>
       <c r="E12">
-        <v>6.172415511995942E-08</v>
+        <v>6.1724155119959424E-8</v>
       </c>
       <c r="F12">
-        <v>4.14519601175835E-07</v>
+        <v>4.14519601175835E-7</v>
       </c>
       <c r="G12">
-        <v>3.720526400369235E-07</v>
+        <v>3.7205264003692348E-7</v>
       </c>
       <c r="H12">
-        <v>8.016140287815376E-07</v>
+        <v>8.0161402878153765E-7</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -3156,25 +3229,25 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>2.667335324949051E-08</v>
+        <v>2.6673353249490511E-8</v>
       </c>
       <c r="C13">
-        <v>2.276500319523145E-07</v>
+        <v>2.2765003195231449E-7</v>
       </c>
       <c r="D13">
-        <v>9.999999999999999E-12</v>
+        <v>9.9999999999999994E-12</v>
       </c>
       <c r="E13">
-        <v>3.106085773502981E-08</v>
+        <v>3.1060857735029807E-8</v>
       </c>
       <c r="F13">
-        <v>2.771651885908998E-07</v>
+        <v>2.7716518859089982E-7</v>
       </c>
       <c r="G13">
-        <v>1.344111661472691E-06</v>
+        <v>1.344111661472691E-6</v>
       </c>
       <c r="H13">
-        <v>-2.714260407828995E-09</v>
+        <v>-2.7142604078289951E-9</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -3191,25 +3264,25 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>6.012985424563927E-07</v>
+        <v>6.0129854245639265E-7</v>
       </c>
       <c r="C14">
-        <v>9.999999999999999E-12</v>
+        <v>9.9999999999999994E-12</v>
       </c>
       <c r="D14">
-        <v>4.828153984790426E-08</v>
+        <v>4.8281539847904257E-8</v>
       </c>
       <c r="E14">
-        <v>8.646639804468708E-08</v>
+        <v>8.6466398044687079E-8</v>
       </c>
       <c r="F14">
-        <v>1.06740430336882E-07</v>
+        <v>1.06740430336882E-7</v>
       </c>
       <c r="G14">
-        <v>1.213561032871016E-06</v>
+        <v>1.2135610328710161E-6</v>
       </c>
       <c r="H14">
-        <v>9.999999999999999E-12</v>
+        <v>9.9999999999999994E-12</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -3226,37 +3299,38 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>2.984780895857398E-06</v>
+        <v>2.9847808958573981E-6</v>
       </c>
       <c r="C15">
-        <v>9.999999999999999E-12</v>
+        <v>9.9999999999999994E-12</v>
       </c>
       <c r="D15">
         <v>-1.713018180403904E-12</v>
       </c>
       <c r="E15">
-        <v>5.102832957821703E-07</v>
+        <v>5.1028329578217032E-7</v>
       </c>
       <c r="F15">
-        <v>8.809040743960632E-12</v>
+        <v>8.8090407439606318E-12</v>
       </c>
       <c r="G15">
-        <v>9.999999999999999E-12</v>
+        <v>9.9999999999999994E-12</v>
       </c>
       <c r="H15">
-        <v>4.838942284689579E-06</v>
+        <v>4.8389422846895789E-6</v>
       </c>
       <c r="I15">
-        <v>0.05150250398808912</v>
+        <v>5.1502503988089122E-2</v>
       </c>
       <c r="J15">
-        <v>0.05151335923149988</v>
+        <v>5.1513359231499883E-2</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>